--- a/抽奖结果.xlsx
+++ b/抽奖结果.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,212 +419,234 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>特等奖&lt;br/&gt;Hadiah Utama PERJALANAN ROHANI - Umrah</v>
+        <v>特等奖 Hadiah Utama PERJALANAN ROHANI - Umrah</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>特等奖&lt;br/&gt;Hadiah Utama PERJALANAN ROHANI - Perjalanan keagamaan Kristen &amp; Katolik ke Jerusalem</v>
+        <v>特等奖 Hadiah Utama PERJALANAN ROHANI - Perjalanan keagamaan Kristen &amp; Katolik ke Jerusalem</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>特等奖&lt;br/&gt;Hadiah Utama PERJALANAN ROHANI - Perjalanan keagamaan Hindu, Budha dan Khonghucu</v>
+        <v>特等奖 Hadiah Utama PERJALANAN ROHANI - Perjalanan keagamaan Hindu, Budha dan Khonghucu</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Hadiah pertama&lt;br/&gt;一等奖</v>
+        <v>Hadiah pertama 一等奖</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Hadiah kedua&lt;br/&gt;二等奖</v>
+        <v>Hadiah kedua 二等奖</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Hadiah ketiga&lt;br/&gt;三等奖</v>
+        <v>Hadiah ketiga 三等奖</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Hadiah keempat&lt;br/&gt;四等奖</v>
+        <v>Hadiah keempat 四等奖</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Hadiah kelima&lt;br/&gt;五等奖</v>
+        <v>Hadiah kelima 五等奖</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>L8210615002</v>
+      <c r="A10">
+        <v>8230610024</v>
       </c>
       <c r="B10" t="str">
-        <v>Huafei Engineering</v>
+        <v>Logistik 1</v>
       </c>
       <c r="C10" t="str">
-        <v>Mikael Danles Manoi</v>
+        <v>Sultan</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>8230317041</v>
+        <v>8220607018</v>
       </c>
       <c r="B11" t="str">
-        <v>Civil Construction</v>
+        <v>Accommodations (Expatriates)</v>
       </c>
       <c r="C11" t="str">
-        <v>La Sirman</v>
+        <v>Peggy Yomima Sahetapy</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>4723052231</v>
+        <v>8220618057</v>
       </c>
       <c r="B12" t="str">
-        <v>镍铁事业部</v>
+        <v>Ferronickel</v>
       </c>
       <c r="C12" t="str">
-        <v>朴利彬</v>
+        <v>Ilham Abu Sae</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>8220911057</v>
+        <v>5723040789</v>
       </c>
       <c r="B13" t="str">
-        <v>Ferronickel</v>
+        <v>PMKI汽修厂</v>
       </c>
       <c r="C13" t="str">
-        <v>Sahrudin Hi. Husen</v>
+        <v>王大文</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>8230625021</v>
+        <v>8210917039</v>
       </c>
       <c r="B14" t="str">
-        <v>RIM</v>
+        <v>LAN Ferronickel</v>
       </c>
       <c r="C14" t="str">
-        <v>Heydy Hermina Noong</v>
+        <v>Kabir Ismail</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>8220409036</v>
+        <v>1320110805</v>
       </c>
       <c r="B15" t="str">
-        <v>Instalasi &amp; Konstruksi</v>
+        <v>物流一部</v>
       </c>
       <c r="C15" t="str">
-        <v>Heriyanto</v>
+        <v>何志鹏</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>8230121063</v>
+        <v>8221008081</v>
       </c>
       <c r="B16" t="str">
-        <v>Port Service</v>
+        <v>Ferronickel</v>
       </c>
       <c r="C16" t="str">
-        <v>Farhan Abubakar</v>
+        <v>Fauji Kabaena</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>8221224004</v>
+        <v>4823060264</v>
       </c>
       <c r="B17" t="str">
-        <v>Accommodations (Indonesia)</v>
+        <v>镍铁事业部</v>
       </c>
       <c r="C17" t="str">
-        <v>Rahmat Djawandi Djiko</v>
+        <v>邱永强</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>8220520058</v>
+        <v>8230521049</v>
       </c>
       <c r="B18" t="str">
-        <v>Ferronickel</v>
+        <v>Port Service</v>
       </c>
       <c r="C18" t="str">
-        <v>Fadli Kamah</v>
+        <v>Julio Haryanto Warahuwena</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>14230412148</v>
+        <v>8220915011</v>
       </c>
       <c r="B19" t="str">
-        <v>电气部</v>
+        <v>Logistik 1</v>
       </c>
       <c r="C19" t="str">
-        <v>陈昕东</v>
+        <v>Abdullah Leuli</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>8230603022</v>
+        <v>8220128051</v>
       </c>
       <c r="B20" t="str">
-        <v>Civil Construction</v>
+        <v>Ferronickel</v>
       </c>
       <c r="C20" t="str">
-        <v>Steno W. Muriolkossu</v>
+        <v>Iqbal Sampelangi</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>8230308079</v>
+      <c r="A21" t="str">
+        <v>N8190816005</v>
       </c>
       <c r="B21" t="str">
-        <v>Power Plant</v>
+        <v>Logistik 2</v>
       </c>
       <c r="C21" t="str">
-        <v>Dejeki Rivandi Siging</v>
+        <v>Ferlison Andre Rawung</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1423050141</v>
+        <v>1423032979</v>
       </c>
       <c r="B22" t="str">
-        <v>道路环卫部</v>
+        <v>质保部</v>
       </c>
       <c r="C22" t="str">
-        <v>李五秀</v>
+        <v>何尚宣</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>K8200923024</v>
+      <c r="A23">
+        <v>8220812003</v>
       </c>
       <c r="B23" t="str">
-        <v>Gudang</v>
+        <v>Power Plant</v>
       </c>
       <c r="C23" t="str">
-        <v>Harun Kanuesa</v>
+        <v>Sahrul Gunawan</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>8230426001</v>
+        <v>8230108051</v>
       </c>
       <c r="B24" t="str">
-        <v>RIM</v>
+        <v>Port Service</v>
       </c>
       <c r="C24" t="str">
-        <v>Masdudianto Bilo</v>
+        <v>Rosihan Iskandar</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>21000107</v>
+      </c>
+      <c r="B25" t="str">
+        <v>镍铁事业部</v>
+      </c>
+      <c r="C25" t="str">
+        <v>李华</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>8230608025</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Heavy Equipment Workshop</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Rifaldi Musa</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/抽奖结果.xlsx
+++ b/抽奖结果.xlsx
@@ -419,7 +419,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>特等奖 Hadiah Utama PERJALANAN ROHANI - Umrah</v>
+        <v>特等奖</v>
       </c>
     </row>
     <row r="3">
@@ -459,189 +459,189 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>8230610024</v>
+        <v>8230221004</v>
       </c>
       <c r="B10" t="str">
-        <v>Logistik 1</v>
+        <v>RIM</v>
       </c>
       <c r="C10" t="str">
-        <v>Sultan</v>
+        <v>Walid Halek</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>8220607018</v>
+        <v>8211128036</v>
       </c>
       <c r="B11" t="str">
-        <v>Accommodations (Expatriates)</v>
+        <v>Heavy Equipment Workshop</v>
       </c>
       <c r="C11" t="str">
-        <v>Peggy Yomima Sahetapy</v>
+        <v>Usman</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>8220618057</v>
+        <v>8220401019</v>
       </c>
       <c r="B12" t="str">
         <v>Ferronickel</v>
       </c>
       <c r="C12" t="str">
-        <v>Ilham Abu Sae</v>
+        <v>Niar Mallisa</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>5723040789</v>
+        <v>8230121047</v>
       </c>
       <c r="B13" t="str">
-        <v>PMKI汽修厂</v>
+        <v>Logistik 1</v>
       </c>
       <c r="C13" t="str">
-        <v>王大文</v>
+        <v>Samsudin Kemhay</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>8210917039</v>
+        <v>8230323052</v>
       </c>
       <c r="B14" t="str">
-        <v>LAN Ferronickel</v>
+        <v>Accommodations (Expatriates)</v>
       </c>
       <c r="C14" t="str">
-        <v>Kabir Ismail</v>
+        <v>Ramadhan Ismail</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>1320110805</v>
+      <c r="A15" t="str">
+        <v>I8190924010</v>
       </c>
       <c r="B15" t="str">
-        <v>物流一部</v>
+        <v>Port Service</v>
       </c>
       <c r="C15" t="str">
-        <v>何志鹏</v>
+        <v>Ali Ibrahim</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>8221008081</v>
+      <c r="A16" t="str">
+        <v>N8190814023</v>
       </c>
       <c r="B16" t="str">
-        <v>Ferronickel</v>
+        <v>RIM</v>
       </c>
       <c r="C16" t="str">
-        <v>Fauji Kabaena</v>
+        <v>Dedy Riady</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>4823060264</v>
+        <v>8230715031</v>
       </c>
       <c r="B17" t="str">
-        <v>镍铁事业部</v>
+        <v>Logistik 1</v>
       </c>
       <c r="C17" t="str">
-        <v>邱永强</v>
+        <v>Irpan</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>8230521049</v>
+        <v>8230407076</v>
       </c>
       <c r="B18" t="str">
-        <v>Port Service</v>
+        <v>Civil Construction</v>
       </c>
       <c r="C18" t="str">
-        <v>Julio Haryanto Warahuwena</v>
+        <v>Jonathan Abdial Tuuk</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>8220915011</v>
+        <v>8230430094</v>
       </c>
       <c r="B19" t="str">
-        <v>Logistik 1</v>
+        <v>Ferronickel</v>
       </c>
       <c r="C19" t="str">
-        <v>Abdullah Leuli</v>
+        <v>Erich L. Samangun</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>8220128051</v>
+        <v>1723030602</v>
       </c>
       <c r="B20" t="str">
-        <v>Ferronickel</v>
+        <v>发电事业部</v>
       </c>
       <c r="C20" t="str">
-        <v>Iqbal Sampelangi</v>
+        <v>马福鑫</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>N8190816005</v>
+      <c r="A21">
+        <v>8211204064</v>
       </c>
       <c r="B21" t="str">
-        <v>Logistik 2</v>
+        <v>RIM</v>
       </c>
       <c r="C21" t="str">
-        <v>Ferlison Andre Rawung</v>
+        <v>Muhammad Saleh Wailissa</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1423032979</v>
+        <v>8211017051</v>
       </c>
       <c r="B22" t="str">
-        <v>质保部</v>
+        <v>Ferronickel</v>
       </c>
       <c r="C22" t="str">
-        <v>何尚宣</v>
+        <v>La Ode Abi</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>8220812003</v>
+        <v>1422053102</v>
       </c>
       <c r="B23" t="str">
-        <v>Power Plant</v>
+        <v>计划部</v>
       </c>
       <c r="C23" t="str">
-        <v>Sahrul Gunawan</v>
+        <v>苏丰驰</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>8230108051</v>
+        <v>8220622082</v>
       </c>
       <c r="B24" t="str">
-        <v>Port Service</v>
+        <v>RIM</v>
       </c>
       <c r="C24" t="str">
-        <v>Rosihan Iskandar</v>
+        <v>Ravit Maduali</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>21000107</v>
+        <v>8211209020</v>
       </c>
       <c r="B25" t="str">
-        <v>镍铁事业部</v>
+        <v>Logistik 1</v>
       </c>
       <c r="C25" t="str">
-        <v>李华</v>
+        <v>Ariyanto Hamidun</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>8230608025</v>
+        <v>8210831007</v>
       </c>
       <c r="B26" t="str">
-        <v>Heavy Equipment Workshop</v>
+        <v>Logistik 1</v>
       </c>
       <c r="C26" t="str">
-        <v>Rifaldi Musa</v>
+        <v>Fikram Suje</v>
       </c>
     </row>
   </sheetData>
